--- a/listPlus.xlsx
+++ b/listPlus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinstahr/Repos/listComparator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E89C67C-5FF7-B946-9156-DE98E9B7D820}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E065777A-E7BE-1D4E-B656-9E7EAF434237}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="14720" xr2:uid="{82DF7D1D-90CD-5B41-9D71-C52152CAACFB}"/>
   </bookViews>
@@ -387,7 +387,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="A1:B8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/listPlus.xlsx
+++ b/listPlus.xlsx
@@ -1,36 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinstahr/Repos/listComparator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\listComparator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E065777A-E7BE-1D4E-B656-9E7EAF434237}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DCCB40-E4A8-4B82-A14E-80B1202AA18A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="440" windowWidth="25440" windowHeight="14720" xr2:uid="{82DF7D1D-90CD-5B41-9D71-C52152CAACFB}"/>
+    <workbookView xWindow="-12195" yWindow="1770" windowWidth="2400" windowHeight="585" xr2:uid="{82DF7D1D-90CD-5B41-9D71-C52152CAACFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="DATA19">Blatt1!$I$6:$I$276</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Datum</t>
   </si>
   <si>
     <t>Betrag</t>
+  </si>
+  <si>
+    <t>Belegnr.</t>
   </si>
 </sst>
 </file>
@@ -384,79 +398,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48631E20-2BE4-854B-94E1-7504BA6EB9DE}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43189</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
+        <v>6000001</v>
+      </c>
+      <c r="C2" s="2">
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43189</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
+        <v>6000002</v>
+      </c>
+      <c r="C3" s="2">
         <v>2830.05</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43189</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
+        <v>6000003</v>
+      </c>
+      <c r="C4" s="2">
         <v>3600.3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43187</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
+        <v>6000004</v>
+      </c>
+      <c r="C5" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43187</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
+        <v>6000005</v>
+      </c>
+      <c r="C6" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43186</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
+        <v>6000006</v>
+      </c>
+      <c r="C7" s="2">
         <v>27.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43181</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
+        <v>6000007</v>
+      </c>
+      <c r="C8" s="2">
         <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43160</v>
+      </c>
+      <c r="B9">
+        <v>6000011</v>
+      </c>
+      <c r="C9" s="2">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
